--- a/Info340Project-XifeiWang/Milestone 01 - Database Plan/DeveloperDocument.xlsx
+++ b/Info340Project-XifeiWang/Milestone 01 - Database Plan/DeveloperDocument.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xifei/Desktop/Info340 Final/Info340Project-YourNameHere/Milestone 01 - Database Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xifei/Desktop/Info340 Final/Info340Project-XifeiWang/Milestone 01 - Database Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35308BF1-EAA8-0449-95D7-799D78FFBEFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C45EE96-E14B-454A-86E1-31703DB7FBFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11020" yWindow="1200" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database Design" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="102">
   <si>
     <t>Patient Appointments Project</t>
   </si>
@@ -186,12 +186,184 @@
   <si>
     <t>Two letter State code</t>
   </si>
+  <si>
+    <t>AppointmentID</t>
+  </si>
+  <si>
+    <t>Not Null, FK</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not Null, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Output</t>
+    </r>
+  </si>
+  <si>
+    <t>Not Null, input</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>PatientID</t>
+  </si>
+  <si>
+    <t>PatientFirstName</t>
+  </si>
+  <si>
+    <t>nVarChar(100)</t>
+  </si>
+  <si>
+    <t>PatientLastName</t>
+  </si>
+  <si>
+    <t>PatientPhoneNumber</t>
+  </si>
+  <si>
+    <t>Not Null, CK</t>
+  </si>
+  <si>
+    <t>Check to match phone pattern</t>
+  </si>
+  <si>
+    <t>PatientStreet</t>
+  </si>
+  <si>
+    <t>PatientCity</t>
+  </si>
+  <si>
+    <t>PatientState</t>
+  </si>
+  <si>
+    <t>PatientZipCode</t>
+  </si>
+  <si>
+    <t>Not Null Check</t>
+  </si>
+  <si>
+    <t>Check to match zipcode pattern</t>
+  </si>
+  <si>
+    <t>vPatient</t>
+  </si>
+  <si>
+    <t>pInsPatient</t>
+  </si>
+  <si>
+    <t>pUpdPatient</t>
+  </si>
+  <si>
+    <t>Not Null, Intput</t>
+  </si>
+  <si>
+    <t>pDelPatient</t>
+  </si>
+  <si>
+    <t>Not null, Input</t>
+  </si>
+  <si>
+    <t>appointment</t>
+  </si>
+  <si>
+    <t>DoctorID</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>vDoctor</t>
+  </si>
+  <si>
+    <t>pInsDoctor</t>
+  </si>
+  <si>
+    <t>pUpdDoctor</t>
+  </si>
+  <si>
+    <t>pDelDoctor</t>
+  </si>
+  <si>
+    <t>DoctorFirstName</t>
+  </si>
+  <si>
+    <t>DoctorLastName</t>
+  </si>
+  <si>
+    <t>DoctorPhoneNumber</t>
+  </si>
+  <si>
+    <t>DoctorStreet</t>
+  </si>
+  <si>
+    <t>DoctorCity</t>
+  </si>
+  <si>
+    <t>DoctorState</t>
+  </si>
+  <si>
+    <t>DoctorZipCode</t>
+  </si>
+  <si>
+    <t>PatientGender</t>
+  </si>
+  <si>
+    <t>nChar(1)</t>
+  </si>
+  <si>
+    <t>AppointmentTime</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>AppointmentStreet</t>
+  </si>
+  <si>
+    <t>AppointmentCity</t>
+  </si>
+  <si>
+    <t>AppointmentState</t>
+  </si>
+  <si>
+    <t>AppointmentZipCode</t>
+  </si>
+  <si>
+    <t>pInsAppointment</t>
+  </si>
+  <si>
+    <t>vAppointment</t>
+  </si>
+  <si>
+    <t>pUpdAppointment</t>
+  </si>
+  <si>
+    <t>pDelAppointment</t>
+  </si>
+  <si>
+    <t>Reference from doctor table</t>
+  </si>
+  <si>
+    <t>Two letter state code</t>
+  </si>
+  <si>
+    <t>Check to be male or femle(F OR M)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +395,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +443,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -268,11 +462,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:I585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,22 +803,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -800,37 +997,40 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -838,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -852,7 +1052,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -866,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -880,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -894,10 +1094,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -908,64 +1108,61 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>18</v>
+      <c r="D22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
+      <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -973,13 +1170,16 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -987,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -1001,7 +1201,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -1015,10 +1215,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1029,33 +1229,27 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>18</v>
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1063,10 +1257,10 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
@@ -1077,49 +1271,55 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
         <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -1128,66 +1328,3653 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>47</v>
       </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>32</v>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="D47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>51</v>
+      </c>
+      <c r="F113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>82</v>
+      </c>
+      <c r="C116" t="s">
+        <v>56</v>
+      </c>
+      <c r="D116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" t="s">
+        <v>47</v>
+      </c>
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>74</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>80</v>
+      </c>
+      <c r="C123" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138" t="s">
+        <v>90</v>
+      </c>
+      <c r="D138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>91</v>
+      </c>
+      <c r="C139" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" t="s">
+        <v>56</v>
+      </c>
+      <c r="D140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>93</v>
+      </c>
+      <c r="C141" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>94</v>
+      </c>
+      <c r="C142" t="s">
+        <v>46</v>
+      </c>
+      <c r="D142" t="s">
+        <v>65</v>
+      </c>
+      <c r="F142" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>89</v>
+      </c>
+      <c r="C147" t="s">
+        <v>90</v>
+      </c>
+      <c r="D147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148" t="s">
+        <v>56</v>
+      </c>
+      <c r="D148" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>93</v>
+      </c>
+      <c r="C150" t="s">
+        <v>47</v>
+      </c>
+      <c r="D150" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>94</v>
+      </c>
+      <c r="C151" t="s">
+        <v>46</v>
+      </c>
+      <c r="D151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>49</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>51</v>
+      </c>
+      <c r="F155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>89</v>
+      </c>
+      <c r="C156" t="s">
+        <v>90</v>
+      </c>
+      <c r="D156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>91</v>
+      </c>
+      <c r="C157" t="s">
+        <v>56</v>
+      </c>
+      <c r="D157" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>92</v>
+      </c>
+      <c r="C158" t="s">
+        <v>56</v>
+      </c>
+      <c r="D158" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>93</v>
+      </c>
+      <c r="C159" t="s">
+        <v>47</v>
+      </c>
+      <c r="D159" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>94</v>
+      </c>
+      <c r="C160" t="s">
+        <v>46</v>
+      </c>
+      <c r="D160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>74</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>89</v>
+      </c>
+      <c r="C165" t="s">
+        <v>90</v>
+      </c>
+      <c r="D165" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>91</v>
+      </c>
+      <c r="C166" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>92</v>
+      </c>
+      <c r="C167" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>93</v>
+      </c>
+      <c r="C168" t="s">
+        <v>47</v>
+      </c>
+      <c r="D168" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>94</v>
+      </c>
+      <c r="C169" t="s">
+        <v>46</v>
+      </c>
+      <c r="D169" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>74</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>25</v>
+      </c>
+      <c r="B173" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="456" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D456" t="s">
+        <v>4</v>
+      </c>
+      <c r="E456" t="s">
+        <v>21</v>
+      </c>
+      <c r="F456" t="s">
+        <v>5</v>
+      </c>
+      <c r="G456" t="s">
+        <v>30</v>
+      </c>
+      <c r="H456" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="457" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D457" t="s">
+        <v>6</v>
+      </c>
+      <c r="E457" t="s">
+        <v>35</v>
+      </c>
+      <c r="F457" t="s">
+        <v>5</v>
+      </c>
+      <c r="G457" t="s">
+        <v>30</v>
+      </c>
+      <c r="H457" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="458" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D458" t="s">
+        <v>7</v>
+      </c>
+      <c r="E458" t="s">
+        <v>9</v>
+      </c>
+      <c r="F458" t="s">
+        <v>8</v>
+      </c>
+      <c r="G458" t="s">
+        <v>22</v>
+      </c>
+      <c r="I458" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="459" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D459" t="s">
+        <v>7</v>
+      </c>
+      <c r="E459" t="s">
+        <v>10</v>
+      </c>
+      <c r="F459" t="s">
+        <v>15</v>
+      </c>
+      <c r="G459" t="s">
+        <v>45</v>
+      </c>
+      <c r="I459" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="460" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D460" t="s">
+        <v>7</v>
+      </c>
+      <c r="E460" t="s">
+        <v>40</v>
+      </c>
+      <c r="F460" t="s">
+        <v>15</v>
+      </c>
+      <c r="G460" t="s">
+        <v>38</v>
+      </c>
+      <c r="I460" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="461" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D461" t="s">
+        <v>7</v>
+      </c>
+      <c r="E461" t="s">
+        <v>11</v>
+      </c>
+      <c r="F461" t="s">
+        <v>15</v>
+      </c>
+      <c r="G461" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="462" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D462" t="s">
+        <v>7</v>
+      </c>
+      <c r="E462" t="s">
+        <v>12</v>
+      </c>
+      <c r="F462" t="s">
+        <v>15</v>
+      </c>
+      <c r="G462" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="463" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D463" t="s">
+        <v>7</v>
+      </c>
+      <c r="E463" t="s">
+        <v>13</v>
+      </c>
+      <c r="F463" t="s">
+        <v>47</v>
+      </c>
+      <c r="G463" t="s">
+        <v>24</v>
+      </c>
+      <c r="I463" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="464" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D464" t="s">
+        <v>7</v>
+      </c>
+      <c r="E464" t="s">
+        <v>14</v>
+      </c>
+      <c r="F464" t="s">
+        <v>46</v>
+      </c>
+      <c r="G464" t="s">
+        <v>38</v>
+      </c>
+      <c r="I464" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="465" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D465" t="s">
+        <v>7</v>
+      </c>
+      <c r="E465" t="s">
+        <v>49</v>
+      </c>
+      <c r="F465" t="s">
+        <v>8</v>
+      </c>
+      <c r="G465" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="466" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D466" t="s">
+        <v>16</v>
+      </c>
+      <c r="E466" t="s">
+        <v>36</v>
+      </c>
+      <c r="F466" t="s">
+        <v>5</v>
+      </c>
+      <c r="G466" t="s">
+        <v>30</v>
+      </c>
+      <c r="H466" t="s">
+        <v>28</v>
+      </c>
+      <c r="I466" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="467" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D467" t="s">
+        <v>7</v>
+      </c>
+      <c r="E467" t="s">
+        <v>9</v>
+      </c>
+      <c r="F467" t="s">
+        <v>8</v>
+      </c>
+      <c r="G467" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="468" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D468" t="s">
+        <v>7</v>
+      </c>
+      <c r="E468" t="s">
+        <v>10</v>
+      </c>
+      <c r="F468" t="s">
+        <v>15</v>
+      </c>
+      <c r="G468" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="469" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D469" t="s">
+        <v>7</v>
+      </c>
+      <c r="E469" t="s">
+        <v>40</v>
+      </c>
+      <c r="F469" t="s">
+        <v>15</v>
+      </c>
+      <c r="G469" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="470" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D470" t="s">
+        <v>7</v>
+      </c>
+      <c r="E470" t="s">
+        <v>11</v>
+      </c>
+      <c r="F470" t="s">
+        <v>15</v>
+      </c>
+      <c r="G470" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="471" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D471" t="s">
+        <v>7</v>
+      </c>
+      <c r="E471" t="s">
+        <v>12</v>
+      </c>
+      <c r="F471" t="s">
+        <v>15</v>
+      </c>
+      <c r="G471" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="472" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D472" t="s">
+        <v>7</v>
+      </c>
+      <c r="E472" t="s">
+        <v>13</v>
+      </c>
+      <c r="F472" t="s">
+        <v>47</v>
+      </c>
+      <c r="G472" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="473" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D473" t="s">
+        <v>7</v>
+      </c>
+      <c r="E473" t="s">
+        <v>14</v>
+      </c>
+      <c r="F473" t="s">
+        <v>46</v>
+      </c>
+      <c r="G473" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="474" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D474" t="s">
+        <v>7</v>
+      </c>
+      <c r="E474" t="s">
+        <v>49</v>
+      </c>
+      <c r="F474" t="s">
+        <v>8</v>
+      </c>
+      <c r="G474" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="475" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D475" t="s">
+        <v>19</v>
+      </c>
+      <c r="E475" t="s">
+        <v>20</v>
+      </c>
+      <c r="F475" t="s">
+        <v>5</v>
+      </c>
+      <c r="G475" t="s">
+        <v>30</v>
+      </c>
+      <c r="H475" t="s">
+        <v>29</v>
+      </c>
+      <c r="I475" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="476" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D476" t="s">
+        <v>25</v>
+      </c>
+      <c r="E476" t="s">
+        <v>9</v>
+      </c>
+      <c r="F476" t="s">
+        <v>8</v>
+      </c>
+      <c r="G476" t="s">
+        <v>51</v>
+      </c>
+      <c r="I476" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="477" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D477" t="s">
+        <v>25</v>
+      </c>
+      <c r="E477" t="s">
+        <v>10</v>
+      </c>
+      <c r="F477" t="s">
+        <v>15</v>
+      </c>
+      <c r="G477" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="478" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D478" t="s">
+        <v>25</v>
+      </c>
+      <c r="E478" t="s">
+        <v>40</v>
+      </c>
+      <c r="F478" t="s">
+        <v>15</v>
+      </c>
+      <c r="G478" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="479" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D479" t="s">
+        <v>25</v>
+      </c>
+      <c r="E479" t="s">
+        <v>11</v>
+      </c>
+      <c r="F479" t="s">
+        <v>15</v>
+      </c>
+      <c r="G479" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="480" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D480" t="s">
+        <v>25</v>
+      </c>
+      <c r="E480" t="s">
+        <v>12</v>
+      </c>
+      <c r="F480" t="s">
+        <v>15</v>
+      </c>
+      <c r="G480" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="481" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D481" t="s">
+        <v>25</v>
+      </c>
+      <c r="E481" t="s">
+        <v>13</v>
+      </c>
+      <c r="F481" t="s">
+        <v>47</v>
+      </c>
+      <c r="G481" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="482" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D482" t="s">
+        <v>25</v>
+      </c>
+      <c r="E482" t="s">
+        <v>14</v>
+      </c>
+      <c r="F482" t="s">
+        <v>46</v>
+      </c>
+      <c r="G482" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="483" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D483" t="s">
+        <v>25</v>
+      </c>
+      <c r="E483" t="s">
+        <v>49</v>
+      </c>
+      <c r="F483" t="s">
+        <v>8</v>
+      </c>
+      <c r="G483" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="484" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D484" t="s">
+        <v>19</v>
+      </c>
+      <c r="E484" t="s">
+        <v>34</v>
+      </c>
+      <c r="F484" t="s">
+        <v>5</v>
+      </c>
+      <c r="G484" t="s">
+        <v>30</v>
+      </c>
+      <c r="H484" t="s">
+        <v>29</v>
+      </c>
+      <c r="I484" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="485" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D485" t="s">
+        <v>25</v>
+      </c>
+      <c r="E485" t="s">
+        <v>9</v>
+      </c>
+      <c r="F485" t="s">
+        <v>8</v>
+      </c>
+      <c r="G485" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="486" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D486" t="s">
+        <v>25</v>
+      </c>
+      <c r="E486" t="s">
+        <v>10</v>
+      </c>
+      <c r="F486" t="s">
+        <v>15</v>
+      </c>
+      <c r="G486" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="487" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D487" t="s">
+        <v>25</v>
+      </c>
+      <c r="E487" t="s">
+        <v>40</v>
+      </c>
+      <c r="F487" t="s">
+        <v>15</v>
+      </c>
+      <c r="G487" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="488" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D488" t="s">
+        <v>25</v>
+      </c>
+      <c r="E488" t="s">
+        <v>11</v>
+      </c>
+      <c r="F488" t="s">
+        <v>15</v>
+      </c>
+      <c r="G488" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="489" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D489" t="s">
+        <v>25</v>
+      </c>
+      <c r="E489" t="s">
+        <v>12</v>
+      </c>
+      <c r="F489" t="s">
+        <v>15</v>
+      </c>
+      <c r="G489" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="490" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D490" t="s">
+        <v>25</v>
+      </c>
+      <c r="E490" t="s">
+        <v>13</v>
+      </c>
+      <c r="F490" t="s">
+        <v>47</v>
+      </c>
+      <c r="G490" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="491" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D491" t="s">
+        <v>25</v>
+      </c>
+      <c r="E491" t="s">
+        <v>14</v>
+      </c>
+      <c r="F491" t="s">
+        <v>46</v>
+      </c>
+      <c r="G491" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="492" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D492" t="s">
+        <v>25</v>
+      </c>
+      <c r="E492" t="s">
+        <v>49</v>
+      </c>
+      <c r="F492" t="s">
+        <v>8</v>
+      </c>
+      <c r="G492" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="493" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D493" t="s">
+        <v>19</v>
+      </c>
+      <c r="E493" t="s">
+        <v>43</v>
+      </c>
+      <c r="F493" t="s">
+        <v>5</v>
+      </c>
+      <c r="G493" t="s">
+        <v>30</v>
+      </c>
+      <c r="H493" t="s">
+        <v>29</v>
+      </c>
+      <c r="I493" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="494" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D494" t="s">
+        <v>25</v>
+      </c>
+      <c r="E494" t="s">
+        <v>9</v>
+      </c>
+      <c r="F494" t="s">
+        <v>8</v>
+      </c>
+      <c r="G494" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="498" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D498" t="s">
+        <v>6</v>
+      </c>
+      <c r="E498" t="s">
+        <v>53</v>
+      </c>
+      <c r="F498" t="s">
+        <v>5</v>
+      </c>
+      <c r="G498" t="s">
+        <v>30</v>
+      </c>
+      <c r="H498" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="499" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D499" t="s">
+        <v>7</v>
+      </c>
+      <c r="E499" t="s">
+        <v>54</v>
+      </c>
+      <c r="F499" t="s">
+        <v>8</v>
+      </c>
+      <c r="G499" t="s">
+        <v>22</v>
+      </c>
+      <c r="I499" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="500" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D500" t="s">
+        <v>7</v>
+      </c>
+      <c r="E500" t="s">
+        <v>55</v>
+      </c>
+      <c r="F500" t="s">
+        <v>56</v>
+      </c>
+      <c r="G500" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="501" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D501" t="s">
+        <v>7</v>
+      </c>
+      <c r="E501" t="s">
+        <v>57</v>
+      </c>
+      <c r="F501" t="s">
+        <v>56</v>
+      </c>
+      <c r="G501" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="502" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D502" t="s">
+        <v>7</v>
+      </c>
+      <c r="E502" t="s">
+        <v>58</v>
+      </c>
+      <c r="F502" t="s">
+        <v>56</v>
+      </c>
+      <c r="G502" t="s">
+        <v>59</v>
+      </c>
+      <c r="I502" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="503" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D503" t="s">
+        <v>7</v>
+      </c>
+      <c r="E503" t="s">
+        <v>61</v>
+      </c>
+      <c r="F503" t="s">
+        <v>56</v>
+      </c>
+      <c r="G503" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="504" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D504" t="s">
+        <v>7</v>
+      </c>
+      <c r="E504" t="s">
+        <v>62</v>
+      </c>
+      <c r="F504" t="s">
+        <v>56</v>
+      </c>
+      <c r="G504" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="505" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D505" t="s">
+        <v>7</v>
+      </c>
+      <c r="E505" t="s">
+        <v>63</v>
+      </c>
+      <c r="F505" t="s">
+        <v>47</v>
+      </c>
+      <c r="G505" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="506" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D506" t="s">
+        <v>7</v>
+      </c>
+      <c r="E506" t="s">
+        <v>64</v>
+      </c>
+      <c r="F506" t="s">
+        <v>46</v>
+      </c>
+      <c r="G506" t="s">
+        <v>65</v>
+      </c>
+      <c r="I506" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="507" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D507" t="s">
+        <v>16</v>
+      </c>
+      <c r="E507" t="s">
+        <v>67</v>
+      </c>
+      <c r="F507" t="s">
+        <v>5</v>
+      </c>
+      <c r="G507" t="s">
+        <v>30</v>
+      </c>
+      <c r="H507" t="s">
+        <v>28</v>
+      </c>
+      <c r="I507" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="508" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D508" t="s">
+        <v>7</v>
+      </c>
+      <c r="E508" t="s">
+        <v>54</v>
+      </c>
+      <c r="F508" t="s">
+        <v>8</v>
+      </c>
+      <c r="G508" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="509" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D509" t="s">
+        <v>7</v>
+      </c>
+      <c r="E509" t="s">
+        <v>55</v>
+      </c>
+      <c r="F509" t="s">
+        <v>56</v>
+      </c>
+      <c r="G509" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="510" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D510" t="s">
+        <v>7</v>
+      </c>
+      <c r="E510" t="s">
+        <v>57</v>
+      </c>
+      <c r="F510" t="s">
+        <v>56</v>
+      </c>
+      <c r="G510" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="511" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D511" t="s">
+        <v>7</v>
+      </c>
+      <c r="E511" t="s">
+        <v>58</v>
+      </c>
+      <c r="F511" t="s">
+        <v>56</v>
+      </c>
+      <c r="G511" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="512" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D512" t="s">
+        <v>7</v>
+      </c>
+      <c r="E512" t="s">
+        <v>61</v>
+      </c>
+      <c r="F512" t="s">
+        <v>56</v>
+      </c>
+      <c r="G512" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="513" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D513" t="s">
+        <v>7</v>
+      </c>
+      <c r="E513" t="s">
+        <v>62</v>
+      </c>
+      <c r="F513" t="s">
+        <v>56</v>
+      </c>
+      <c r="G513" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="514" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D514" t="s">
+        <v>7</v>
+      </c>
+      <c r="E514" t="s">
+        <v>63</v>
+      </c>
+      <c r="F514" t="s">
+        <v>47</v>
+      </c>
+      <c r="G514" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="515" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D515" t="s">
+        <v>7</v>
+      </c>
+      <c r="E515" t="s">
+        <v>64</v>
+      </c>
+      <c r="F515" t="s">
+        <v>46</v>
+      </c>
+      <c r="G515" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="516" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D516" t="s">
+        <v>19</v>
+      </c>
+      <c r="E516" t="s">
+        <v>68</v>
+      </c>
+      <c r="F516" t="s">
+        <v>5</v>
+      </c>
+      <c r="G516" t="s">
+        <v>30</v>
+      </c>
+      <c r="H516" t="s">
+        <v>29</v>
+      </c>
+      <c r="I516" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="517" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D517" t="s">
+        <v>25</v>
+      </c>
+      <c r="E517" t="s">
+        <v>54</v>
+      </c>
+      <c r="F517" t="s">
+        <v>8</v>
+      </c>
+      <c r="G517" t="s">
+        <v>51</v>
+      </c>
+      <c r="I517" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="518" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D518" t="s">
+        <v>25</v>
+      </c>
+      <c r="E518" t="s">
+        <v>55</v>
+      </c>
+      <c r="F518" t="s">
+        <v>56</v>
+      </c>
+      <c r="G518" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="519" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D519" t="s">
+        <v>25</v>
+      </c>
+      <c r="E519" t="s">
+        <v>57</v>
+      </c>
+      <c r="F519" t="s">
+        <v>56</v>
+      </c>
+      <c r="G519" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="520" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D520" t="s">
+        <v>25</v>
+      </c>
+      <c r="E520" t="s">
+        <v>58</v>
+      </c>
+      <c r="F520" t="s">
+        <v>56</v>
+      </c>
+      <c r="G520" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="521" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D521" t="s">
+        <v>25</v>
+      </c>
+      <c r="E521" t="s">
+        <v>61</v>
+      </c>
+      <c r="F521" t="s">
+        <v>56</v>
+      </c>
+      <c r="G521" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="522" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D522" t="s">
+        <v>25</v>
+      </c>
+      <c r="E522" t="s">
+        <v>62</v>
+      </c>
+      <c r="F522" t="s">
+        <v>56</v>
+      </c>
+      <c r="G522" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="523" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D523" t="s">
+        <v>25</v>
+      </c>
+      <c r="E523" t="s">
+        <v>63</v>
+      </c>
+      <c r="F523" t="s">
+        <v>47</v>
+      </c>
+      <c r="G523" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="524" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D524" t="s">
+        <v>25</v>
+      </c>
+      <c r="E524" t="s">
+        <v>64</v>
+      </c>
+      <c r="F524" t="s">
+        <v>46</v>
+      </c>
+      <c r="G524" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="525" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D525" t="s">
+        <v>19</v>
+      </c>
+      <c r="E525" t="s">
+        <v>69</v>
+      </c>
+      <c r="F525" t="s">
+        <v>5</v>
+      </c>
+      <c r="G525" t="s">
+        <v>30</v>
+      </c>
+      <c r="H525" t="s">
+        <v>29</v>
+      </c>
+      <c r="I525" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="526" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D526" t="s">
+        <v>25</v>
+      </c>
+      <c r="E526" t="s">
+        <v>54</v>
+      </c>
+      <c r="F526" t="s">
+        <v>8</v>
+      </c>
+      <c r="G526" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="527" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D527" t="s">
+        <v>25</v>
+      </c>
+      <c r="E527" t="s">
+        <v>55</v>
+      </c>
+      <c r="F527" t="s">
+        <v>56</v>
+      </c>
+      <c r="G527" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="528" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D528" t="s">
+        <v>25</v>
+      </c>
+      <c r="E528" t="s">
+        <v>57</v>
+      </c>
+      <c r="F528" t="s">
+        <v>56</v>
+      </c>
+      <c r="G528" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="529" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D529" t="s">
+        <v>25</v>
+      </c>
+      <c r="E529" t="s">
+        <v>58</v>
+      </c>
+      <c r="F529" t="s">
+        <v>56</v>
+      </c>
+      <c r="G529" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="530" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D530" t="s">
+        <v>25</v>
+      </c>
+      <c r="E530" t="s">
+        <v>61</v>
+      </c>
+      <c r="F530" t="s">
+        <v>56</v>
+      </c>
+      <c r="G530" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="531" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D531" t="s">
+        <v>25</v>
+      </c>
+      <c r="E531" t="s">
+        <v>62</v>
+      </c>
+      <c r="F531" t="s">
+        <v>56</v>
+      </c>
+      <c r="G531" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="532" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D532" t="s">
+        <v>25</v>
+      </c>
+      <c r="E532" t="s">
+        <v>63</v>
+      </c>
+      <c r="F532" t="s">
+        <v>47</v>
+      </c>
+      <c r="G532" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="533" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D533" t="s">
+        <v>25</v>
+      </c>
+      <c r="E533" t="s">
+        <v>64</v>
+      </c>
+      <c r="F533" t="s">
+        <v>46</v>
+      </c>
+      <c r="G533" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="534" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D534" t="s">
+        <v>19</v>
+      </c>
+      <c r="E534" t="s">
+        <v>71</v>
+      </c>
+      <c r="F534" t="s">
+        <v>5</v>
+      </c>
+      <c r="G534" t="s">
+        <v>30</v>
+      </c>
+      <c r="H534" t="s">
+        <v>29</v>
+      </c>
+      <c r="I534" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="535" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D535" t="s">
+        <v>25</v>
+      </c>
+      <c r="E535" t="s">
+        <v>54</v>
+      </c>
+      <c r="F535" t="s">
+        <v>8</v>
+      </c>
+      <c r="G535" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="539" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D539" t="s">
+        <v>6</v>
+      </c>
+      <c r="E539" t="s">
+        <v>73</v>
+      </c>
+      <c r="F539" t="s">
+        <v>5</v>
+      </c>
+      <c r="G539" t="s">
+        <v>30</v>
+      </c>
+      <c r="H539" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="540" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D540" t="s">
+        <v>7</v>
+      </c>
+      <c r="E540" t="s">
+        <v>54</v>
+      </c>
+      <c r="F540" t="s">
+        <v>8</v>
+      </c>
+      <c r="G540" t="s">
+        <v>22</v>
+      </c>
+      <c r="I540" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="541" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D541" t="s">
+        <v>7</v>
+      </c>
+      <c r="E541" t="s">
+        <v>55</v>
+      </c>
+      <c r="F541" t="s">
+        <v>56</v>
+      </c>
+      <c r="G541" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="542" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D542" t="s">
+        <v>7</v>
+      </c>
+      <c r="E542" t="s">
+        <v>57</v>
+      </c>
+      <c r="F542" t="s">
+        <v>56</v>
+      </c>
+      <c r="G542" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="543" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D543" t="s">
+        <v>7</v>
+      </c>
+      <c r="E543" t="s">
+        <v>58</v>
+      </c>
+      <c r="F543" t="s">
+        <v>56</v>
+      </c>
+      <c r="G543" t="s">
+        <v>59</v>
+      </c>
+      <c r="I543" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="544" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D544" t="s">
+        <v>7</v>
+      </c>
+      <c r="E544" t="s">
+        <v>61</v>
+      </c>
+      <c r="F544" t="s">
+        <v>56</v>
+      </c>
+      <c r="G544" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="545" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D545" t="s">
+        <v>7</v>
+      </c>
+      <c r="E545" t="s">
+        <v>62</v>
+      </c>
+      <c r="F545" t="s">
+        <v>56</v>
+      </c>
+      <c r="G545" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="546" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D546" t="s">
+        <v>7</v>
+      </c>
+      <c r="E546" t="s">
+        <v>63</v>
+      </c>
+      <c r="F546" t="s">
+        <v>47</v>
+      </c>
+      <c r="G546" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="547" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D547" t="s">
+        <v>7</v>
+      </c>
+      <c r="E547" t="s">
+        <v>64</v>
+      </c>
+      <c r="F547" t="s">
+        <v>46</v>
+      </c>
+      <c r="G547" t="s">
+        <v>65</v>
+      </c>
+      <c r="I547" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="549" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D549" t="s">
+        <v>16</v>
+      </c>
+      <c r="E549" t="s">
+        <v>67</v>
+      </c>
+      <c r="F549" t="s">
+        <v>5</v>
+      </c>
+      <c r="G549" t="s">
+        <v>30</v>
+      </c>
+      <c r="H549" t="s">
+        <v>28</v>
+      </c>
+      <c r="I549" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="550" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D550" t="s">
+        <v>7</v>
+      </c>
+      <c r="E550" t="s">
+        <v>54</v>
+      </c>
+      <c r="F550" t="s">
+        <v>8</v>
+      </c>
+      <c r="G550" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="551" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D551" t="s">
+        <v>7</v>
+      </c>
+      <c r="E551" t="s">
+        <v>55</v>
+      </c>
+      <c r="F551" t="s">
+        <v>56</v>
+      </c>
+      <c r="G551" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="552" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D552" t="s">
+        <v>7</v>
+      </c>
+      <c r="E552" t="s">
+        <v>57</v>
+      </c>
+      <c r="F552" t="s">
+        <v>56</v>
+      </c>
+      <c r="G552" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="553" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D553" t="s">
+        <v>7</v>
+      </c>
+      <c r="E553" t="s">
+        <v>58</v>
+      </c>
+      <c r="F553" t="s">
+        <v>56</v>
+      </c>
+      <c r="G553" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="554" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D554" t="s">
+        <v>7</v>
+      </c>
+      <c r="E554" t="s">
+        <v>61</v>
+      </c>
+      <c r="F554" t="s">
+        <v>56</v>
+      </c>
+      <c r="G554" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="555" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D555" t="s">
+        <v>7</v>
+      </c>
+      <c r="E555" t="s">
+        <v>62</v>
+      </c>
+      <c r="F555" t="s">
+        <v>56</v>
+      </c>
+      <c r="G555" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="556" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D556" t="s">
+        <v>7</v>
+      </c>
+      <c r="E556" t="s">
+        <v>63</v>
+      </c>
+      <c r="F556" t="s">
+        <v>47</v>
+      </c>
+      <c r="G556" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="557" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D557" t="s">
+        <v>7</v>
+      </c>
+      <c r="E557" t="s">
+        <v>64</v>
+      </c>
+      <c r="F557" t="s">
+        <v>46</v>
+      </c>
+      <c r="G557" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="560" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D560" t="s">
+        <v>19</v>
+      </c>
+      <c r="E560" t="s">
+        <v>68</v>
+      </c>
+      <c r="F560" t="s">
+        <v>5</v>
+      </c>
+      <c r="G560" t="s">
+        <v>30</v>
+      </c>
+      <c r="H560" t="s">
+        <v>29</v>
+      </c>
+      <c r="I560" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="561" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D561" t="s">
+        <v>25</v>
+      </c>
+      <c r="E561" t="s">
+        <v>54</v>
+      </c>
+      <c r="F561" t="s">
+        <v>8</v>
+      </c>
+      <c r="G561" t="s">
+        <v>51</v>
+      </c>
+      <c r="I561" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="562" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D562" t="s">
+        <v>25</v>
+      </c>
+      <c r="E562" t="s">
+        <v>55</v>
+      </c>
+      <c r="F562" t="s">
+        <v>56</v>
+      </c>
+      <c r="G562" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="563" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D563" t="s">
+        <v>25</v>
+      </c>
+      <c r="E563" t="s">
+        <v>57</v>
+      </c>
+      <c r="F563" t="s">
+        <v>56</v>
+      </c>
+      <c r="G563" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="564" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D564" t="s">
+        <v>25</v>
+      </c>
+      <c r="E564" t="s">
+        <v>58</v>
+      </c>
+      <c r="F564" t="s">
+        <v>56</v>
+      </c>
+      <c r="G564" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="565" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D565" t="s">
+        <v>25</v>
+      </c>
+      <c r="E565" t="s">
+        <v>61</v>
+      </c>
+      <c r="F565" t="s">
+        <v>56</v>
+      </c>
+      <c r="G565" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="566" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D566" t="s">
+        <v>25</v>
+      </c>
+      <c r="E566" t="s">
+        <v>62</v>
+      </c>
+      <c r="F566" t="s">
+        <v>56</v>
+      </c>
+      <c r="G566" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="567" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D567" t="s">
+        <v>25</v>
+      </c>
+      <c r="E567" t="s">
+        <v>63</v>
+      </c>
+      <c r="F567" t="s">
+        <v>47</v>
+      </c>
+      <c r="G567" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="568" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D568" t="s">
+        <v>25</v>
+      </c>
+      <c r="E568" t="s">
+        <v>64</v>
+      </c>
+      <c r="F568" t="s">
+        <v>46</v>
+      </c>
+      <c r="G568" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="572" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D572" t="s">
+        <v>19</v>
+      </c>
+      <c r="E572" t="s">
+        <v>69</v>
+      </c>
+      <c r="F572" t="s">
+        <v>5</v>
+      </c>
+      <c r="G572" t="s">
+        <v>30</v>
+      </c>
+      <c r="H572" t="s">
+        <v>29</v>
+      </c>
+      <c r="I572" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="573" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D573" t="s">
+        <v>25</v>
+      </c>
+      <c r="E573" t="s">
+        <v>54</v>
+      </c>
+      <c r="F573" t="s">
+        <v>8</v>
+      </c>
+      <c r="G573" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="574" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D574" t="s">
+        <v>25</v>
+      </c>
+      <c r="E574" t="s">
+        <v>55</v>
+      </c>
+      <c r="F574" t="s">
+        <v>56</v>
+      </c>
+      <c r="G574" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="575" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D575" t="s">
+        <v>25</v>
+      </c>
+      <c r="E575" t="s">
+        <v>57</v>
+      </c>
+      <c r="F575" t="s">
+        <v>56</v>
+      </c>
+      <c r="G575" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="576" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D576" t="s">
+        <v>25</v>
+      </c>
+      <c r="E576" t="s">
+        <v>58</v>
+      </c>
+      <c r="F576" t="s">
+        <v>56</v>
+      </c>
+      <c r="G576" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="577" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D577" t="s">
+        <v>25</v>
+      </c>
+      <c r="E577" t="s">
+        <v>61</v>
+      </c>
+      <c r="F577" t="s">
+        <v>56</v>
+      </c>
+      <c r="G577" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="578" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D578" t="s">
+        <v>25</v>
+      </c>
+      <c r="E578" t="s">
+        <v>62</v>
+      </c>
+      <c r="F578" t="s">
+        <v>56</v>
+      </c>
+      <c r="G578" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="579" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D579" t="s">
+        <v>25</v>
+      </c>
+      <c r="E579" t="s">
+        <v>63</v>
+      </c>
+      <c r="F579" t="s">
+        <v>47</v>
+      </c>
+      <c r="G579" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="580" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D580" t="s">
+        <v>25</v>
+      </c>
+      <c r="E580" t="s">
+        <v>64</v>
+      </c>
+      <c r="F580" t="s">
+        <v>46</v>
+      </c>
+      <c r="G580" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="584" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D584" t="s">
+        <v>19</v>
+      </c>
+      <c r="E584" t="s">
+        <v>71</v>
+      </c>
+      <c r="F584" t="s">
+        <v>5</v>
+      </c>
+      <c r="G584" t="s">
+        <v>30</v>
+      </c>
+      <c r="H584" t="s">
+        <v>29</v>
+      </c>
+      <c r="I584" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="585" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D585" t="s">
+        <v>25</v>
+      </c>
+      <c r="E585" t="s">
+        <v>54</v>
+      </c>
+      <c r="F585" t="s">
+        <v>8</v>
+      </c>
+      <c r="G585" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Info340Project-XifeiWang/Milestone 01 - Database Plan/DeveloperDocument.xlsx
+++ b/Info340Project-XifeiWang/Milestone 01 - Database Plan/DeveloperDocument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xifei/Desktop/Info340 Final/Info340Project-XifeiWang/Milestone 01 - Database Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C45EE96-E14B-454A-86E1-31703DB7FBFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7753A319-3D5C-2349-9235-BA756D689DC5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="1200" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="520" windowWidth="17180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database Design" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="104">
   <si>
     <t>Patient Appointments Project</t>
   </si>
@@ -350,13 +350,19 @@
     <t>pDelAppointment</t>
   </si>
   <si>
-    <t>Reference from doctor table</t>
-  </si>
-  <si>
     <t>Two letter state code</t>
   </si>
   <si>
     <t>Check to be male or femle(F OR M)</t>
+  </si>
+  <si>
+    <t>Not Null,fk</t>
+  </si>
+  <si>
+    <t>Check reference from Clinic(ClinicID)</t>
+  </si>
+  <si>
+    <t>Check to match Phone pattern 206-123-1234</t>
   </si>
 </sst>
 </file>
@@ -787,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I585"/>
+  <dimension ref="A1:I589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -931,7 +937,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -994,23 +1000,6 @@
       </c>
       <c r="F13" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1131,20 +1120,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>19</v>
@@ -1266,20 +1241,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>19</v>
@@ -1396,20 +1357,6 @@
       </c>
       <c r="D40" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1585,7 +1532,7 @@
         <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1619,7 +1566,7 @@
         <v>65</v>
       </c>
       <c r="F58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2219,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="F101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2240,37 +2187,40 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>101</v>
+      </c>
+      <c r="F103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="D104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" t="s">
-        <v>74</v>
-      </c>
-      <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -2278,10 +2228,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C105" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
         <v>30</v>
@@ -2292,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C106" t="s">
         <v>56</v>
@@ -2306,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C107" t="s">
         <v>56</v>
@@ -2320,7 +2270,7 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C108" t="s">
         <v>56</v>
@@ -2334,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C109" t="s">
         <v>56</v>
@@ -2348,10 +2298,10 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D110" t="s">
         <v>30</v>
@@ -2362,64 +2312,61 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
         <v>86</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>46</v>
       </c>
-      <c r="D111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>18</v>
+      <c r="D112" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
-      </c>
-      <c r="F113" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B114" t="s">
-        <v>80</v>
-      </c>
-      <c r="C114" t="s">
-        <v>56</v>
-      </c>
-      <c r="D114" t="s">
-        <v>32</v>
+      <c r="A114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -2427,13 +2374,16 @@
         <v>25</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="F115" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -2441,7 +2391,7 @@
         <v>25</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C116" t="s">
         <v>56</v>
@@ -2455,7 +2405,7 @@
         <v>25</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C117" t="s">
         <v>56</v>
@@ -2469,7 +2419,7 @@
         <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C118" t="s">
         <v>56</v>
@@ -2483,10 +2433,10 @@
         <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D119" t="s">
         <v>32</v>
@@ -2497,33 +2447,27 @@
         <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D120" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>18</v>
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -2531,13 +2475,13 @@
         <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D122" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -2545,27 +2489,33 @@
         <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B124" t="s">
-        <v>81</v>
-      </c>
-      <c r="C124" t="s">
-        <v>56</v>
-      </c>
-      <c r="D124" t="s">
-        <v>32</v>
+      <c r="A124" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -2573,13 +2523,13 @@
         <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -2587,7 +2537,7 @@
         <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C126" t="s">
         <v>56</v>
@@ -2601,7 +2551,7 @@
         <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C127" t="s">
         <v>56</v>
@@ -2615,10 +2565,10 @@
         <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D128" t="s">
         <v>32</v>
@@ -2629,33 +2579,27 @@
         <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D129" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>18</v>
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" t="s">
+        <v>84</v>
+      </c>
+      <c r="C130" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -2663,104 +2607,110 @@
         <v>25</v>
       </c>
       <c r="B131" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" t="s">
+        <v>47</v>
+      </c>
+      <c r="D131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" t="s">
         <v>74</v>
       </c>
-      <c r="C131" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B140" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C140" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E136" s="6" t="s">
+      <c r="D140" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" t="s">
-        <v>49</v>
-      </c>
-      <c r="C137" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" t="s">
-        <v>22</v>
-      </c>
-      <c r="F137" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" t="s">
-        <v>90</v>
-      </c>
-      <c r="D138" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>7</v>
-      </c>
-      <c r="B139" t="s">
-        <v>91</v>
-      </c>
-      <c r="C139" t="s">
-        <v>56</v>
-      </c>
-      <c r="D139" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>7</v>
-      </c>
-      <c r="B140" t="s">
-        <v>92</v>
-      </c>
-      <c r="C140" t="s">
-        <v>56</v>
-      </c>
-      <c r="D140" t="s">
-        <v>24</v>
-      </c>
+      <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C141" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F141" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -2768,16 +2718,13 @@
         <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C142" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D142" t="s">
-        <v>65</v>
-      </c>
-      <c r="F142" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -2785,13 +2732,13 @@
         <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D143" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -2799,33 +2746,27 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D144" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>18</v>
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>93</v>
+      </c>
+      <c r="C145" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -2833,13 +2774,16 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D146" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="F146" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -2847,13 +2791,13 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C147" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -2861,27 +2805,33 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C148" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" t="s">
-        <v>92</v>
-      </c>
-      <c r="C149" t="s">
-        <v>56</v>
-      </c>
-      <c r="D149" t="s">
-        <v>30</v>
+      <c r="A149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -2889,10 +2839,10 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C150" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
         <v>30</v>
@@ -2903,10 +2853,10 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C151" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D151" t="s">
         <v>30</v>
@@ -2917,10 +2867,10 @@
         <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D152" t="s">
         <v>30</v>
@@ -2931,33 +2881,27 @@
         <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D153" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>18</v>
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>93</v>
+      </c>
+      <c r="C154" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -2965,16 +2909,13 @@
         <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D155" t="s">
-        <v>51</v>
-      </c>
-      <c r="F155" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -2982,13 +2923,13 @@
         <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C156" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -2996,27 +2937,33 @@
         <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C157" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>7</v>
-      </c>
-      <c r="B158" t="s">
-        <v>92</v>
-      </c>
-      <c r="C158" t="s">
-        <v>56</v>
-      </c>
-      <c r="D158" t="s">
-        <v>32</v>
+      <c r="A158" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -3024,13 +2971,16 @@
         <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C159" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="F159" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -3038,10 +2988,10 @@
         <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C160" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D160" t="s">
         <v>32</v>
@@ -3052,10 +3002,10 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D161" t="s">
         <v>32</v>
@@ -3066,33 +3016,27 @@
         <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D162" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>18</v>
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" t="s">
+        <v>93</v>
+      </c>
+      <c r="C163" t="s">
+        <v>47</v>
+      </c>
+      <c r="D163" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -3100,13 +3044,13 @@
         <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D164" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -3114,10 +3058,10 @@
         <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C165" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D165" t="s">
         <v>32</v>
@@ -3128,27 +3072,33 @@
         <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C166" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D166" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>7</v>
-      </c>
-      <c r="B167" t="s">
-        <v>92</v>
-      </c>
-      <c r="C167" t="s">
-        <v>56</v>
-      </c>
-      <c r="D167" t="s">
-        <v>32</v>
+      <c r="A167" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -3156,13 +3106,13 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C168" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -3170,10 +3120,10 @@
         <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C169" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D169" t="s">
         <v>32</v>
@@ -3184,10 +3134,10 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D170" t="s">
         <v>32</v>
@@ -3198,146 +3148,137 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D171" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>18</v>
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>93</v>
+      </c>
+      <c r="C172" t="s">
+        <v>47</v>
+      </c>
+      <c r="D172" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
+        <v>94</v>
+      </c>
+      <c r="C173" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>74</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177" t="s">
         <v>49</v>
       </c>
-      <c r="C173" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="456" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D456" t="s">
-        <v>4</v>
-      </c>
-      <c r="E456" t="s">
-        <v>21</v>
-      </c>
-      <c r="F456" t="s">
-        <v>5</v>
-      </c>
-      <c r="G456" t="s">
-        <v>30</v>
-      </c>
-      <c r="H456" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="457" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D457" t="s">
-        <v>6</v>
-      </c>
-      <c r="E457" t="s">
-        <v>35</v>
-      </c>
-      <c r="F457" t="s">
-        <v>5</v>
-      </c>
-      <c r="G457" t="s">
-        <v>30</v>
-      </c>
-      <c r="H457" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="458" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D458" t="s">
-        <v>7</v>
-      </c>
-      <c r="E458" t="s">
-        <v>9</v>
-      </c>
-      <c r="F458" t="s">
-        <v>8</v>
-      </c>
-      <c r="G458" t="s">
-        <v>22</v>
-      </c>
-      <c r="I458" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="459" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D459" t="s">
-        <v>7</v>
-      </c>
-      <c r="E459" t="s">
-        <v>10</v>
-      </c>
-      <c r="F459" t="s">
-        <v>15</v>
-      </c>
-      <c r="G459" t="s">
-        <v>45</v>
-      </c>
-      <c r="I459" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="460" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D460" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E460" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F460" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G460" t="s">
-        <v>38</v>
-      </c>
-      <c r="I460" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="H460" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="461" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D461" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E461" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F461" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G461" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="H461" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="462" spans="4:9" x14ac:dyDescent="0.2">
@@ -3345,13 +3286,16 @@
         <v>7</v>
       </c>
       <c r="E462" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F462" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G462" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="I462" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="463" spans="4:9" x14ac:dyDescent="0.2">
@@ -3359,16 +3303,16 @@
         <v>7</v>
       </c>
       <c r="E463" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G463" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I463" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="464" spans="4:9" x14ac:dyDescent="0.2">
@@ -3376,16 +3320,16 @@
         <v>7</v>
       </c>
       <c r="E464" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F464" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G464" t="s">
         <v>38</v>
       </c>
       <c r="I464" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="465" spans="4:9" x14ac:dyDescent="0.2">
@@ -3393,33 +3337,27 @@
         <v>7</v>
       </c>
       <c r="E465" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F465" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G465" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="466" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D466" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E466" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F466" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G466" t="s">
-        <v>30</v>
-      </c>
-      <c r="H466" t="s">
-        <v>28</v>
-      </c>
-      <c r="I466" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="467" spans="4:9" x14ac:dyDescent="0.2">
@@ -3427,13 +3365,16 @@
         <v>7</v>
       </c>
       <c r="E467" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F467" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G467" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="I467" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="468" spans="4:9" x14ac:dyDescent="0.2">
@@ -3441,13 +3382,16 @@
         <v>7</v>
       </c>
       <c r="E468" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F468" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G468" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="I468" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="469" spans="4:9" x14ac:dyDescent="0.2">
@@ -3455,27 +3399,33 @@
         <v>7</v>
       </c>
       <c r="E469" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F469" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G469" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="470" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D470" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E470" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F470" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G470" t="s">
         <v>30</v>
+      </c>
+      <c r="H470" t="s">
+        <v>28</v>
+      </c>
+      <c r="I470" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="471" spans="4:9" x14ac:dyDescent="0.2">
@@ -3483,10 +3433,10 @@
         <v>7</v>
       </c>
       <c r="E471" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F471" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G471" t="s">
         <v>30</v>
@@ -3497,10 +3447,10 @@
         <v>7</v>
       </c>
       <c r="E472" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G472" t="s">
         <v>30</v>
@@ -3511,10 +3461,10 @@
         <v>7</v>
       </c>
       <c r="E473" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F473" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G473" t="s">
         <v>30</v>
@@ -3525,10 +3475,10 @@
         <v>7</v>
       </c>
       <c r="E474" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F474" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G474" t="s">
         <v>30</v>
@@ -3536,81 +3486,78 @@
     </row>
     <row r="475" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D475" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E475" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F475" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G475" t="s">
         <v>30</v>
-      </c>
-      <c r="H475" t="s">
-        <v>29</v>
-      </c>
-      <c r="I475" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="476" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D476" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E476" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F476" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G476" t="s">
-        <v>51</v>
-      </c>
-      <c r="I476" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="477" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D477" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E477" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F477" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G477" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="478" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D478" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E478" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F478" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G478" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="479" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D479" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E479" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F479" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G479" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H479" t="s">
+        <v>29</v>
+      </c>
+      <c r="I479" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="480" spans="4:9" x14ac:dyDescent="0.2">
@@ -3618,13 +3565,16 @@
         <v>25</v>
       </c>
       <c r="E480" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F480" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G480" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="I480" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="481" spans="4:9" x14ac:dyDescent="0.2">
@@ -3632,10 +3582,10 @@
         <v>25</v>
       </c>
       <c r="E481" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G481" t="s">
         <v>32</v>
@@ -3646,10 +3596,10 @@
         <v>25</v>
       </c>
       <c r="E482" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F482" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G482" t="s">
         <v>32</v>
@@ -3660,33 +3610,27 @@
         <v>25</v>
       </c>
       <c r="E483" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F483" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G483" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="484" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D484" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E484" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F484" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G484" t="s">
-        <v>30</v>
-      </c>
-      <c r="H484" t="s">
-        <v>29</v>
-      </c>
-      <c r="I484" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="485" spans="4:9" x14ac:dyDescent="0.2">
@@ -3694,10 +3638,10 @@
         <v>25</v>
       </c>
       <c r="E485" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F485" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G485" t="s">
         <v>32</v>
@@ -3708,10 +3652,10 @@
         <v>25</v>
       </c>
       <c r="E486" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F486" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G486" t="s">
         <v>32</v>
@@ -3722,27 +3666,33 @@
         <v>25</v>
       </c>
       <c r="E487" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F487" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G487" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="488" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D488" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E488" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F488" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G488" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H488" t="s">
+        <v>29</v>
+      </c>
+      <c r="I488" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="489" spans="4:9" x14ac:dyDescent="0.2">
@@ -3750,10 +3700,10 @@
         <v>25</v>
       </c>
       <c r="E489" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F489" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G489" t="s">
         <v>32</v>
@@ -3764,10 +3714,10 @@
         <v>25</v>
       </c>
       <c r="E490" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G490" t="s">
         <v>32</v>
@@ -3778,10 +3728,10 @@
         <v>25</v>
       </c>
       <c r="E491" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F491" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G491" t="s">
         <v>32</v>
@@ -3792,33 +3742,27 @@
         <v>25</v>
       </c>
       <c r="E492" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F492" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G492" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="493" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D493" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E493" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F493" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G493" t="s">
-        <v>30</v>
-      </c>
-      <c r="H493" t="s">
-        <v>29</v>
-      </c>
-      <c r="I493" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="494" spans="4:9" x14ac:dyDescent="0.2">
@@ -3826,92 +3770,92 @@
         <v>25</v>
       </c>
       <c r="E494" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F494" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G494" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="495" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D495" t="s">
+        <v>25</v>
+      </c>
+      <c r="E495" t="s">
+        <v>14</v>
+      </c>
+      <c r="F495" t="s">
+        <v>46</v>
+      </c>
+      <c r="G495" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="496" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D496" t="s">
+        <v>25</v>
+      </c>
+      <c r="E496" t="s">
+        <v>49</v>
+      </c>
+      <c r="F496" t="s">
+        <v>8</v>
+      </c>
+      <c r="G496" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="497" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D497" t="s">
+        <v>19</v>
+      </c>
+      <c r="E497" t="s">
+        <v>43</v>
+      </c>
+      <c r="F497" t="s">
+        <v>5</v>
+      </c>
+      <c r="G497" t="s">
+        <v>30</v>
+      </c>
+      <c r="H497" t="s">
+        <v>29</v>
+      </c>
+      <c r="I497" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="498" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D498" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E498" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F498" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G498" t="s">
-        <v>30</v>
-      </c>
-      <c r="H498" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="499" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D499" t="s">
-        <v>7</v>
-      </c>
-      <c r="E499" t="s">
-        <v>54</v>
-      </c>
-      <c r="F499" t="s">
-        <v>8</v>
-      </c>
-      <c r="G499" t="s">
-        <v>22</v>
-      </c>
-      <c r="I499" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="500" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D500" t="s">
-        <v>7</v>
-      </c>
-      <c r="E500" t="s">
-        <v>55</v>
-      </c>
-      <c r="F500" t="s">
-        <v>56</v>
-      </c>
-      <c r="G500" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="501" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D501" t="s">
-        <v>7</v>
-      </c>
-      <c r="E501" t="s">
-        <v>57</v>
-      </c>
-      <c r="F501" t="s">
-        <v>56</v>
-      </c>
-      <c r="G501" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="502" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D502" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E502" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F502" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G502" t="s">
-        <v>59</v>
-      </c>
-      <c r="I502" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="H502" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="503" spans="4:9" x14ac:dyDescent="0.2">
@@ -3919,13 +3863,16 @@
         <v>7</v>
       </c>
       <c r="E503" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F503" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G503" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="I503" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="504" spans="4:9" x14ac:dyDescent="0.2">
@@ -3933,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="E504" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F504" t="s">
         <v>56</v>
@@ -3947,10 +3894,10 @@
         <v>7</v>
       </c>
       <c r="E505" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F505" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G505" t="s">
         <v>24</v>
@@ -3961,36 +3908,30 @@
         <v>7</v>
       </c>
       <c r="E506" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F506" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G506" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I506" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="507" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D507" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E507" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F507" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G507" t="s">
-        <v>30</v>
-      </c>
-      <c r="H507" t="s">
-        <v>28</v>
-      </c>
-      <c r="I507" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="508" spans="4:9" x14ac:dyDescent="0.2">
@@ -3998,13 +3939,13 @@
         <v>7</v>
       </c>
       <c r="E508" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F508" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G508" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="509" spans="4:9" x14ac:dyDescent="0.2">
@@ -4012,13 +3953,13 @@
         <v>7</v>
       </c>
       <c r="E509" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F509" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G509" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="510" spans="4:9" x14ac:dyDescent="0.2">
@@ -4026,27 +3967,36 @@
         <v>7</v>
       </c>
       <c r="E510" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F510" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G510" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="I510" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="511" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D511" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E511" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F511" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G511" t="s">
         <v>30</v>
+      </c>
+      <c r="H511" t="s">
+        <v>28</v>
+      </c>
+      <c r="I511" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="512" spans="4:9" x14ac:dyDescent="0.2">
@@ -4054,10 +4004,10 @@
         <v>7</v>
       </c>
       <c r="E512" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F512" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G512" t="s">
         <v>30</v>
@@ -4068,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="E513" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F513" t="s">
         <v>56</v>
@@ -4082,10 +4032,10 @@
         <v>7</v>
       </c>
       <c r="E514" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F514" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G514" t="s">
         <v>30</v>
@@ -4096,10 +4046,10 @@
         <v>7</v>
       </c>
       <c r="E515" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F515" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G515" t="s">
         <v>30</v>
@@ -4107,81 +4057,78 @@
     </row>
     <row r="516" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D516" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E516" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F516" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G516" t="s">
         <v>30</v>
-      </c>
-      <c r="H516" t="s">
-        <v>29</v>
-      </c>
-      <c r="I516" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="517" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D517" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E517" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F517" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G517" t="s">
-        <v>51</v>
-      </c>
-      <c r="I517" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="518" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D518" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E518" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F518" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G518" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="519" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D519" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E519" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F519" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G519" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="520" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D520" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E520" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F520" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G520" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H520" t="s">
+        <v>29</v>
+      </c>
+      <c r="I520" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="521" spans="4:9" x14ac:dyDescent="0.2">
@@ -4189,13 +4136,16 @@
         <v>25</v>
       </c>
       <c r="E521" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F521" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G521" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="I521" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="522" spans="4:9" x14ac:dyDescent="0.2">
@@ -4203,7 +4153,7 @@
         <v>25</v>
       </c>
       <c r="E522" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F522" t="s">
         <v>56</v>
@@ -4217,10 +4167,10 @@
         <v>25</v>
       </c>
       <c r="E523" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F523" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G523" t="s">
         <v>32</v>
@@ -4231,10 +4181,10 @@
         <v>25</v>
       </c>
       <c r="E524" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F524" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G524" t="s">
         <v>32</v>
@@ -4242,22 +4192,16 @@
     </row>
     <row r="525" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D525" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E525" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F525" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G525" t="s">
-        <v>30</v>
-      </c>
-      <c r="H525" t="s">
-        <v>29</v>
-      </c>
-      <c r="I525" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="526" spans="4:9" x14ac:dyDescent="0.2">
@@ -4265,13 +4209,13 @@
         <v>25</v>
       </c>
       <c r="E526" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F526" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G526" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="527" spans="4:9" x14ac:dyDescent="0.2">
@@ -4279,10 +4223,10 @@
         <v>25</v>
       </c>
       <c r="E527" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F527" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G527" t="s">
         <v>32</v>
@@ -4293,10 +4237,10 @@
         <v>25</v>
       </c>
       <c r="E528" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F528" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G528" t="s">
         <v>32</v>
@@ -4304,16 +4248,22 @@
     </row>
     <row r="529" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D529" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E529" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F529" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G529" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H529" t="s">
+        <v>29</v>
+      </c>
+      <c r="I529" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="530" spans="4:9" x14ac:dyDescent="0.2">
@@ -4321,13 +4271,13 @@
         <v>25</v>
       </c>
       <c r="E530" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F530" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G530" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="531" spans="4:9" x14ac:dyDescent="0.2">
@@ -4335,7 +4285,7 @@
         <v>25</v>
       </c>
       <c r="E531" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F531" t="s">
         <v>56</v>
@@ -4349,10 +4299,10 @@
         <v>25</v>
       </c>
       <c r="E532" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F532" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G532" t="s">
         <v>32</v>
@@ -4363,10 +4313,10 @@
         <v>25</v>
       </c>
       <c r="E533" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F533" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G533" t="s">
         <v>32</v>
@@ -4374,22 +4324,16 @@
     </row>
     <row r="534" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D534" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E534" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F534" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G534" t="s">
-        <v>30</v>
-      </c>
-      <c r="H534" t="s">
-        <v>29</v>
-      </c>
-      <c r="I534" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="535" spans="4:9" x14ac:dyDescent="0.2">
@@ -4397,92 +4341,92 @@
         <v>25</v>
       </c>
       <c r="E535" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F535" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G535" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="536" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D536" t="s">
+        <v>25</v>
+      </c>
+      <c r="E536" t="s">
+        <v>63</v>
+      </c>
+      <c r="F536" t="s">
+        <v>47</v>
+      </c>
+      <c r="G536" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="537" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D537" t="s">
+        <v>25</v>
+      </c>
+      <c r="E537" t="s">
+        <v>64</v>
+      </c>
+      <c r="F537" t="s">
+        <v>46</v>
+      </c>
+      <c r="G537" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="538" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D538" t="s">
+        <v>19</v>
+      </c>
+      <c r="E538" t="s">
+        <v>71</v>
+      </c>
+      <c r="F538" t="s">
+        <v>5</v>
+      </c>
+      <c r="G538" t="s">
+        <v>30</v>
+      </c>
+      <c r="H538" t="s">
+        <v>29</v>
+      </c>
+      <c r="I538" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="539" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D539" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E539" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F539" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G539" t="s">
-        <v>30</v>
-      </c>
-      <c r="H539" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="540" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D540" t="s">
-        <v>7</v>
-      </c>
-      <c r="E540" t="s">
-        <v>54</v>
-      </c>
-      <c r="F540" t="s">
-        <v>8</v>
-      </c>
-      <c r="G540" t="s">
-        <v>22</v>
-      </c>
-      <c r="I540" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="541" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D541" t="s">
-        <v>7</v>
-      </c>
-      <c r="E541" t="s">
-        <v>55</v>
-      </c>
-      <c r="F541" t="s">
-        <v>56</v>
-      </c>
-      <c r="G541" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="542" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D542" t="s">
-        <v>7</v>
-      </c>
-      <c r="E542" t="s">
-        <v>57</v>
-      </c>
-      <c r="F542" t="s">
-        <v>56</v>
-      </c>
-      <c r="G542" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="543" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D543" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E543" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F543" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G543" t="s">
-        <v>59</v>
-      </c>
-      <c r="I543" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="H543" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="544" spans="4:9" x14ac:dyDescent="0.2">
@@ -4490,13 +4434,16 @@
         <v>7</v>
       </c>
       <c r="E544" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F544" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G544" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="I544" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="545" spans="4:9" x14ac:dyDescent="0.2">
@@ -4504,7 +4451,7 @@
         <v>7</v>
       </c>
       <c r="E545" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F545" t="s">
         <v>56</v>
@@ -4518,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="E546" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F546" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G546" t="s">
         <v>24</v>
@@ -4532,36 +4479,44 @@
         <v>7</v>
       </c>
       <c r="E547" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F547" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G547" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I547" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="548" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D548" t="s">
+        <v>7</v>
+      </c>
+      <c r="E548" t="s">
+        <v>61</v>
+      </c>
+      <c r="F548" t="s">
+        <v>56</v>
+      </c>
+      <c r="G548" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="549" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D549" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E549" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F549" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G549" t="s">
-        <v>30</v>
-      </c>
-      <c r="H549" t="s">
-        <v>28</v>
-      </c>
-      <c r="I549" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="550" spans="4:9" x14ac:dyDescent="0.2">
@@ -4569,13 +4524,13 @@
         <v>7</v>
       </c>
       <c r="E550" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F550" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G550" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="551" spans="4:9" x14ac:dyDescent="0.2">
@@ -4583,41 +4538,36 @@
         <v>7</v>
       </c>
       <c r="E551" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F551" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G551" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="552" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D552" t="s">
-        <v>7</v>
-      </c>
-      <c r="E552" t="s">
-        <v>57</v>
-      </c>
-      <c r="F552" t="s">
-        <v>56</v>
-      </c>
-      <c r="G552" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="I551" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="553" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D553" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E553" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F553" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G553" t="s">
         <v>30</v>
+      </c>
+      <c r="H553" t="s">
+        <v>28</v>
+      </c>
+      <c r="I553" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="554" spans="4:9" x14ac:dyDescent="0.2">
@@ -4625,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="E554" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F554" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G554" t="s">
         <v>30</v>
@@ -4639,7 +4589,7 @@
         <v>7</v>
       </c>
       <c r="E555" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F555" t="s">
         <v>56</v>
@@ -4653,10 +4603,10 @@
         <v>7</v>
       </c>
       <c r="E556" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F556" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G556" t="s">
         <v>30</v>
@@ -4667,92 +4617,89 @@
         <v>7</v>
       </c>
       <c r="E557" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F557" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G557" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="558" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D558" t="s">
+        <v>7</v>
+      </c>
+      <c r="E558" t="s">
+        <v>61</v>
+      </c>
+      <c r="F558" t="s">
+        <v>56</v>
+      </c>
+      <c r="G558" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="559" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D559" t="s">
+        <v>7</v>
+      </c>
+      <c r="E559" t="s">
+        <v>62</v>
+      </c>
+      <c r="F559" t="s">
+        <v>56</v>
+      </c>
+      <c r="G559" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="560" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D560" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E560" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F560" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G560" t="s">
         <v>30</v>
-      </c>
-      <c r="H560" t="s">
-        <v>29</v>
-      </c>
-      <c r="I560" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="561" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D561" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E561" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F561" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G561" t="s">
-        <v>51</v>
-      </c>
-      <c r="I561" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="562" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D562" t="s">
-        <v>25</v>
-      </c>
-      <c r="E562" t="s">
-        <v>55</v>
-      </c>
-      <c r="F562" t="s">
-        <v>56</v>
-      </c>
-      <c r="G562" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="563" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D563" t="s">
-        <v>25</v>
-      </c>
-      <c r="E563" t="s">
-        <v>57</v>
-      </c>
-      <c r="F563" t="s">
-        <v>56</v>
-      </c>
-      <c r="G563" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="564" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D564" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E564" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F564" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G564" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H564" t="s">
+        <v>29</v>
+      </c>
+      <c r="I564" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="565" spans="4:9" x14ac:dyDescent="0.2">
@@ -4760,13 +4707,16 @@
         <v>25</v>
       </c>
       <c r="E565" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F565" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G565" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="I565" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="566" spans="4:9" x14ac:dyDescent="0.2">
@@ -4774,7 +4724,7 @@
         <v>25</v>
       </c>
       <c r="E566" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F566" t="s">
         <v>56</v>
@@ -4788,10 +4738,10 @@
         <v>25</v>
       </c>
       <c r="E567" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F567" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G567" t="s">
         <v>32</v>
@@ -4802,89 +4752,89 @@
         <v>25</v>
       </c>
       <c r="E568" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F568" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G568" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="569" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D569" t="s">
+        <v>25</v>
+      </c>
+      <c r="E569" t="s">
+        <v>61</v>
+      </c>
+      <c r="F569" t="s">
+        <v>56</v>
+      </c>
+      <c r="G569" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="570" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D570" t="s">
+        <v>25</v>
+      </c>
+      <c r="E570" t="s">
+        <v>62</v>
+      </c>
+      <c r="F570" t="s">
+        <v>56</v>
+      </c>
+      <c r="G570" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="571" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D571" t="s">
+        <v>25</v>
+      </c>
+      <c r="E571" t="s">
+        <v>63</v>
+      </c>
+      <c r="F571" t="s">
+        <v>47</v>
+      </c>
+      <c r="G571" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="572" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D572" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E572" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F572" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G572" t="s">
-        <v>30</v>
-      </c>
-      <c r="H572" t="s">
-        <v>29</v>
-      </c>
-      <c r="I572" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="573" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D573" t="s">
-        <v>25</v>
-      </c>
-      <c r="E573" t="s">
-        <v>54</v>
-      </c>
-      <c r="F573" t="s">
-        <v>8</v>
-      </c>
-      <c r="G573" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="574" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D574" t="s">
-        <v>25</v>
-      </c>
-      <c r="E574" t="s">
-        <v>55</v>
-      </c>
-      <c r="F574" t="s">
-        <v>56</v>
-      </c>
-      <c r="G574" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="575" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D575" t="s">
-        <v>25</v>
-      </c>
-      <c r="E575" t="s">
-        <v>57</v>
-      </c>
-      <c r="F575" t="s">
-        <v>56</v>
-      </c>
-      <c r="G575" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="576" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D576" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E576" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F576" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G576" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H576" t="s">
+        <v>29</v>
+      </c>
+      <c r="I576" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="577" spans="4:9" x14ac:dyDescent="0.2">
@@ -4892,13 +4842,13 @@
         <v>25</v>
       </c>
       <c r="E577" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F577" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G577" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="578" spans="4:9" x14ac:dyDescent="0.2">
@@ -4906,7 +4856,7 @@
         <v>25</v>
       </c>
       <c r="E578" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F578" t="s">
         <v>56</v>
@@ -4920,10 +4870,10 @@
         <v>25</v>
       </c>
       <c r="E579" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F579" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G579" t="s">
         <v>32</v>
@@ -4934,46 +4884,102 @@
         <v>25</v>
       </c>
       <c r="E580" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F580" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G580" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="581" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D581" t="s">
+        <v>25</v>
+      </c>
+      <c r="E581" t="s">
+        <v>61</v>
+      </c>
+      <c r="F581" t="s">
+        <v>56</v>
+      </c>
+      <c r="G581" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="582" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D582" t="s">
+        <v>25</v>
+      </c>
+      <c r="E582" t="s">
+        <v>62</v>
+      </c>
+      <c r="F582" t="s">
+        <v>56</v>
+      </c>
+      <c r="G582" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="583" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D583" t="s">
+        <v>25</v>
+      </c>
+      <c r="E583" t="s">
+        <v>63</v>
+      </c>
+      <c r="F583" t="s">
+        <v>47</v>
+      </c>
+      <c r="G583" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="584" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D584" t="s">
+        <v>25</v>
+      </c>
+      <c r="E584" t="s">
+        <v>64</v>
+      </c>
+      <c r="F584" t="s">
+        <v>46</v>
+      </c>
+      <c r="G584" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="588" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D588" t="s">
         <v>19</v>
       </c>
-      <c r="E584" t="s">
+      <c r="E588" t="s">
         <v>71</v>
       </c>
-      <c r="F584" t="s">
+      <c r="F588" t="s">
         <v>5</v>
       </c>
-      <c r="G584" t="s">
-        <v>30</v>
-      </c>
-      <c r="H584" t="s">
+      <c r="G588" t="s">
+        <v>30</v>
+      </c>
+      <c r="H588" t="s">
         <v>29</v>
       </c>
-      <c r="I584" t="s">
+      <c r="I588" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="585" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D585" t="s">
-        <v>25</v>
-      </c>
-      <c r="E585" t="s">
+    <row r="589" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D589" t="s">
+        <v>25</v>
+      </c>
+      <c r="E589" t="s">
         <v>54</v>
       </c>
-      <c r="F585" t="s">
-        <v>8</v>
-      </c>
-      <c r="G585" t="s">
+      <c r="F589" t="s">
+        <v>8</v>
+      </c>
+      <c r="G589" t="s">
         <v>72</v>
       </c>
     </row>
